--- a/data/trans_bre/P35A_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P35A_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-7,77</t>
+          <t>-6,64</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-9,27</t>
+          <t>-7,28</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>-2,96</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-26,56%</t>
+          <t>-2,36</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-31,06%</t>
+          <t>-41,93%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>4,09%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-41,77%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-18,6%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-25,23%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>29,46%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-22,05; 7,74</t>
+          <t>-14,4; 0,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,02; 18,33</t>
+          <t>-6,21; 7,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-23,82; 3,9</t>
+          <t>-16,41; 0,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-15,2; 19,03</t>
+          <t>-13,08; 5,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-58,45; 38,65</t>
+          <t>-10,36; 5,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-49,53; 190,85</t>
+          <t>-6,72; 9,86</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-61,3; 21,37</t>
+          <t>-70,54; 7,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-61,57; 191,03</t>
+          <t>-53,03; 150,04</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-69,82; 6,36</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-59,1; 56,89</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-71,27; 109,63</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-52,63; 233,62</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-13,13</t>
+          <t>-9,33</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-12,03</t>
+          <t>-9,93</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-3,05</t>
+          <t>-6,58</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-14,33</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-53,65%</t>
+          <t>-9,5</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-40,44%</t>
+          <t>-6,74</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-11,74%</t>
+          <t>-64,24%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-48,38%</t>
+          <t>-61,24%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-44,07%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>12,46%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-64,24%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-48,94%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-28,67; -1,17</t>
+          <t>-21,21; -2,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-23,8; 1,02</t>
+          <t>-16,41; -3,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-16,24; 9,01</t>
+          <t>-12,64; -0,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-29,57; 1,02</t>
+          <t>-7,05; 10,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-83,29; 4,51</t>
+          <t>-18,06; -2,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-68,53; 7,86</t>
+          <t>-14,69; 0,46</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-50,53; 45,77</t>
+          <t>-88,88; -24,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-78,1; 5,47</t>
+          <t>-81,32; -25,89</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-68,51; -1,03</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-37,72; 112,54</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-84,84; -20,63</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-77,05; 6,08</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-7,2</t>
+          <t>-7,67</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,34</t>
+          <t>-6,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-10,62</t>
+          <t>-8,37</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-18,79</t>
+          <t>-12,22</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-44,25%</t>
+          <t>-11,3</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-12,5%</t>
+          <t>-2,57</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-51,1%</t>
+          <t>-67,27%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-67,0%</t>
+          <t>-49,62%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-66,25%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-60,32%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-75,78%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-22,48%</t>
         </is>
       </c>
     </row>
@@ -868,42 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,33; 0,26</t>
+          <t>-13,94; -2,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,44; 6,39</t>
+          <t>-11,58; -1,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-19,44; -2,39</t>
+          <t>-13,44; -3,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-28,76; -8,98</t>
+          <t>-19,67; -6,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-76,97; 6,69</t>
+          <t>-17,66; -6,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-49,65; 46,26</t>
+          <t>-8,79; 3,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-74,73; -12,64</t>
+          <t>-86,04; -31,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-84,38; -35,99</t>
+          <t>-73,11; -14,63</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-81,28; -36,02</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-76,17; -38,45</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-90,26; -51,38</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-58,47; 42,31</t>
         </is>
       </c>
     </row>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-6,03</t>
+          <t>-6,73</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>-3,79</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-11,12</t>
+          <t>-10,07</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-4,76</t>
+          <t>-14,24</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-41,35%</t>
+          <t>-4,52</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,63%</t>
+          <t>-5,46</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-67,16%</t>
+          <t>-65,53%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-21,61%</t>
+          <t>-45,53%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-81,45%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-79,23%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-46,53%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-44,29%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,03; 1,68</t>
+          <t>-12,29; -2,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,19; 7,78</t>
+          <t>-8,73; -0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-17,16; -4,84</t>
+          <t>-14,93; -6,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-17,9; 7,47</t>
+          <t>-20,12; -8,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-71,98; 18,47</t>
+          <t>-9,71; 0,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-46,82; 95,27</t>
+          <t>-11,52; 0,25</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-85,18; -34,23</t>
+          <t>-86,23; -30,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-64,55; 47,52</t>
+          <t>-74,12; 2,41</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-90,94; -60,86</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-89,38; -61,73</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-76,04; 9,48</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-72,23; 2,84</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1212,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,77</t>
+          <t>-3,76</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-6,57</t>
+          <t>-4,66</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-7,69</t>
+          <t>-6,48</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-8,88</t>
+          <t>-9,62</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>-6,24</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-2,32</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-87,94%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-71,29%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-47,8%</t>
+          <t>-93,81%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-86,3%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-79,49%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-68,59%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-29,62%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1280,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,14; -2,62</t>
+          <t>-6,44; -1,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,38; -2,44</t>
+          <t>-7,82; -2,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-13,43; -1,46</t>
+          <t>-10,35; -3,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-19,87; 2,4</t>
+          <t>-16,21; -4,7</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>-11,48; -1,7</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-7,63; 2,97</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -8,96</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-93,02; 10,94</t>
-        </is>
-      </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-80,34; 32,3</t>
+          <t>-100,0; -42,18</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-96,72; -54,24</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-93,72; -50,15</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-90,25; -21,71</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-70,43; 63,07</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1352,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-2,36</t>
+          <t>-1,65</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-1,98</t>
+          <t>-1,99</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-6,83</t>
+          <t>-4,3</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,64</t>
+          <t>-7,13</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-52,28%</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-39,16%</t>
+          <t>-6,31</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>-79,92%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-74,98%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>106,35%</t>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-82,61%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-41,55%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-87,35%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1420,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-8,11; 4,07</t>
+          <t>-4,21; 0,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 4,31</t>
+          <t>-5,05; -0,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-13,35; -3,14</t>
+          <t>-7,71; -1,88</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 19,63</t>
+          <t>-12,78; -2,79</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>-3,73; 1,35</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-11,26; -2,8</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 311,54</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 100,9</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-96,39; -30,11</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; -44,06</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1492,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-6,42</t>
+          <t>-6,35</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,46</t>
+          <t>-4,67</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-7,21</t>
+          <t>-7,63</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-7,42</t>
+          <t>-8,21</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-39,94%</t>
+          <t>-6,3</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-16,37%</t>
+          <t>-4,04</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-39,29%</t>
+          <t>-64,91%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-35,96%</t>
+          <t>-51,63%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-65,4%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-54,91%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-61,69%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-38,9%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1560,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-11,36; -2,54</t>
+          <t>-9,3; -4,28</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 2,21</t>
+          <t>-6,81; -2,76</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-11,36; -3,62</t>
+          <t>-9,66; -5,48</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-12,67; -2,52</t>
+          <t>-11,22; -5,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-59,58; -18,34</t>
+          <t>-8,6; -3,95</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-36,75; 17,18</t>
+          <t>-6,37; -1,29</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-54,79; -21,45</t>
+          <t>-76,61; -50,72</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-54,67; -11,68</t>
+          <t>-65,87; -34,44</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-74,06; -52,92</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-65,65; -40,87</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-73,37; -46,16</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-53,56; -14,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
